--- a/Residuos/Model/t1_confection/A1_Outputs/A-O_Parametrization.xlsx
+++ b/Residuos/Model/t1_confection/A1_Outputs/A-O_Parametrization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Dropbox\modelo_waste_202303\t1_confectionV3\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Dropbox\modelo_waste_202303\t1_confectionV5\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E74834-AD6F-4D25-996A-5D3A63ABA84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63EAE4-1AF6-418F-8A4C-81E8610F31DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed Horizon Parameters" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -381,7 +381,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +436,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -464,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -478,8 +484,10 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2194,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47:BI47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8048,59 +8056,59 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="11"/>
-      <c r="AS37" s="11"/>
-      <c r="AT37" s="11"/>
-      <c r="AU37" s="11"/>
-      <c r="AV37" s="11"/>
-      <c r="AW37" s="11"/>
-      <c r="AX37" s="11"/>
-      <c r="AY37" s="11"/>
-      <c r="AZ37" s="11"/>
-      <c r="BA37" s="11"/>
-      <c r="BB37" s="11"/>
-      <c r="BC37" s="11"/>
-      <c r="BD37" s="11"/>
-      <c r="BE37" s="11"/>
-      <c r="BF37" s="11"/>
-      <c r="BG37" s="11"/>
-      <c r="BH37" s="11"/>
-      <c r="BI37" s="11"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="14"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="14"/>
+      <c r="BG37" s="14"/>
+      <c r="BH37" s="14"/>
+      <c r="BI37" s="14"/>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -9580,59 +9588,59 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="11"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="11"/>
-      <c r="AQ47" s="11"/>
-      <c r="AR47" s="11"/>
-      <c r="AS47" s="11"/>
-      <c r="AT47" s="11"/>
-      <c r="AU47" s="11"/>
-      <c r="AV47" s="11"/>
-      <c r="AW47" s="11"/>
-      <c r="AX47" s="11"/>
-      <c r="AY47" s="11"/>
-      <c r="AZ47" s="11"/>
-      <c r="BA47" s="11"/>
-      <c r="BB47" s="11"/>
-      <c r="BC47" s="11"/>
-      <c r="BD47" s="11"/>
-      <c r="BE47" s="11"/>
-      <c r="BF47" s="11"/>
-      <c r="BG47" s="11"/>
-      <c r="BH47" s="11"/>
-      <c r="BI47" s="11"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="14"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="14"/>
+      <c r="AZ47" s="14"/>
+      <c r="BA47" s="14"/>
+      <c r="BB47" s="14"/>
+      <c r="BC47" s="14"/>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="14"/>
+      <c r="BF47" s="14"/>
+      <c r="BG47" s="14"/>
+      <c r="BH47" s="14"/>
+      <c r="BI47" s="14"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -18226,8 +18234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J84" sqref="J83:J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33059,59 +33067,165 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
-      <c r="AA97" s="6"/>
-      <c r="AB97" s="6"/>
-      <c r="AC97" s="6"/>
-      <c r="AD97" s="6"/>
-      <c r="AE97" s="6"/>
-      <c r="AF97" s="6"/>
-      <c r="AG97" s="6"/>
-      <c r="AH97" s="6"/>
-      <c r="AI97" s="6"/>
-      <c r="AJ97" s="6"/>
-      <c r="AK97" s="6"/>
-      <c r="AL97" s="6"/>
-      <c r="AM97" s="6"/>
-      <c r="AN97" s="6"/>
-      <c r="AO97" s="6"/>
-      <c r="AP97" s="6"/>
-      <c r="AQ97" s="6"/>
-      <c r="AR97" s="6"/>
-      <c r="AS97" s="6"/>
-      <c r="AT97" s="6"/>
-      <c r="AU97" s="6"/>
-      <c r="AV97" s="6"/>
-      <c r="AW97" s="6"/>
-      <c r="AX97" s="6"/>
-      <c r="AY97" s="6"/>
-      <c r="AZ97" s="6"/>
-      <c r="BA97" s="6"/>
-      <c r="BB97" s="6"/>
-      <c r="BC97" s="6"/>
-      <c r="BD97" s="6"/>
-      <c r="BE97" s="6"/>
-      <c r="BF97" s="6"/>
-      <c r="BG97" s="6"/>
-      <c r="BH97" s="6"/>
-      <c r="BI97" s="6"/>
+      <c r="I97" s="13">
+        <v>0</v>
+      </c>
+      <c r="J97" s="13">
+        <v>0</v>
+      </c>
+      <c r="K97" s="13">
+        <v>0</v>
+      </c>
+      <c r="L97" s="13">
+        <v>0</v>
+      </c>
+      <c r="M97" s="13">
+        <v>0</v>
+      </c>
+      <c r="N97" s="13">
+        <v>0</v>
+      </c>
+      <c r="O97" s="13">
+        <v>0</v>
+      </c>
+      <c r="P97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="13">
+        <v>0</v>
+      </c>
+      <c r="R97" s="13">
+        <v>0</v>
+      </c>
+      <c r="S97" s="13">
+        <v>0</v>
+      </c>
+      <c r="T97" s="13">
+        <v>0</v>
+      </c>
+      <c r="U97" s="13">
+        <v>0</v>
+      </c>
+      <c r="V97" s="13">
+        <v>0</v>
+      </c>
+      <c r="W97" s="13">
+        <v>0</v>
+      </c>
+      <c r="X97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BD97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI97" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A98">
